--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_2_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_2_genetic_schedule.xlsx
@@ -518,6 +518,13 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>EN 311 - Engineering Ethics
+2B
+Room 147</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="50" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -525,7 +532,142 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="2" t="n"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>CA 403 - Computer Architecture
+3A
+Room 300</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>GE 203 - Geology
+2D
+Room 161</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>BS 417 - Business Statistics
+3C
+Room 212</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>DB 325 - Database Management
+2A
+Room 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>GN 431 - Genetics
 3D
@@ -533,143 +675,6 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>BS 417 - Business Statistics
-3C
-Room 212</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>CA 403 - Computer Architecture
-3A
-Room 300</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>EN 311 - Engineering Ethics
-2B
-Room 147</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>DB 325 - Database Management
-2A
-Room 14</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-    </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
@@ -677,6 +682,8 @@
         </is>
       </c>
       <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="E18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -684,6 +691,8 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
+      <c r="B19" s="2" t="n"/>
+      <c r="E19" s="2" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -698,6 +707,13 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>GN 431 - Genetics
+3D
+Room 226</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -705,7 +721,8 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>DB 325 - Database Management
 2A
@@ -719,7 +736,7 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -729,9 +746,9 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>GN 431 - Genetics
-3D
-Room 226</t>
+          <t>GE 203 - Geology
+2D
+Room 264</t>
         </is>
       </c>
     </row>
@@ -749,7 +766,6 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -760,15 +776,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_2_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_2_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,48 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +121,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +581,28 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>EN 311 - Engineering Ethics
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>B2 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>B1 IS 213 - IT Infrastructure &amp; Network Technologies
 2B
-Room 147</t>
+Room 310
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>A2 ITE 112 - Fundamentals of Programming
+1A
+Room 208
+Emp: 2</t>
         </is>
       </c>
     </row>
@@ -532,14 +612,9 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>CA 403 - Computer Architecture
-3A
-Room 300</t>
-        </is>
-      </c>
+      <c r="B3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="F3" s="5" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -547,8 +622,9 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="F4" s="5" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -556,7 +632,22 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n"/>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>A2 ITE 112 - Fundamentals of Programming
+1A
+Room 310
+Emp: 2</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -564,7 +655,16 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>B1 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 303
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -572,13 +672,9 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>GE 203 - Geology
-2D
-Room 161</t>
-        </is>
-      </c>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="5" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -586,7 +682,7 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
+      <c r="D8" s="4" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -594,7 +690,7 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
+      <c r="D9" s="4" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -616,6 +712,30 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>B2 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>A1 ITE 112 - Fundamentals of Programming
+1A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>A1 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 304
+Emp: 2</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -623,6 +743,9 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="F13" s="8" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -630,6 +753,9 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="F14" s="8" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -637,6 +763,23 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 112 - Fundamentals of Programming
+1B
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>A1 ITE 112 - Fundamentals of Programming
+1A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -644,18 +787,14 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>BS 417 - Business Statistics
-3C
-Room 212</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>DB 325 - Database Management
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="9" t="inlineStr">
+        <is>
+          <t>A2 IS 213 - IT Infrastructure &amp; Network Technologies
 2A
-Room 14</t>
+Room 303
+Emp: 2</t>
         </is>
       </c>
     </row>
@@ -665,15 +804,9 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>GN 431 - Genetics
-3D
-Room 13</t>
-        </is>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="9" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -681,9 +814,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
+      <c r="D18" s="9" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -691,8 +822,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
+      <c r="D19" s="9" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -707,11 +837,44 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GN 431 - Genetics
-3D
-Room 226</t>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>A1 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A1 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 208
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D21" s="7" t="inlineStr">
+        <is>
+          <t>A1 ITE 112 - Fundamentals of Programming
+1A
+Room 305
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 112 - Fundamentals of Programming
+1B
+Room 305
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>B1 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 310
+Emp: 2</t>
         </is>
       </c>
     </row>
@@ -721,14 +884,11 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>DB 325 - Database Management
-2A
-Room 133</t>
-        </is>
-      </c>
+      <c r="B22" s="8" t="n"/>
+      <c r="C22" s="8" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="4" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -736,7 +896,11 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="8" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="4" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -744,13 +908,16 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>GE 203 - Geology
-2D
-Room 264</t>
-        </is>
-      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>A2 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 310
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="6" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -758,7 +925,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="9" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -766,6 +933,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
+      <c r="C26" s="9" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -775,16 +943,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B7:B9"/>
+  <mergeCells count="18">
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
